--- a/biology/Botanique/Liste_d'espèces_endémiques_de_France/Liste_d'espèces_endémiques_de_France.xlsx
+++ b/biology/Botanique/Liste_d'espèces_endémiques_de_France/Liste_d'espèces_endémiques_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+          <t>Liste_d'espèces_endémiques_de_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une espèce biologique est dite endémique d'une zone géographique lorsqu'elle n'existe que dans cette zone à l'état spontané.
 Cet article liste les espèces endémiques de France : départements métropolitains (dont la Corse), départements d'outre-mer (Guadeloupe, Martinique, Guyane et Réunion) et collectivités d'outre-mer à statut proche du statut départemental (Saint-Pierre-et-Miquelon, Mayotte, Saint-Martin et Saint-Barthélemy), mais n'inclut pas les anciens territoires d'outre-mer de Wallis-et-Futuna (collectivité territoriale), de la Polynésie française et de la Nouvelle-Calédonie (pays d'outre-mer) et des îles Éparses, de l'île de Clipperton et des Terres australes et antarctiques françaises (districts d'outre-mer). 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+          <t>Liste_d'espèces_endémiques_de_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Opégraphacées
-Enterographa brezhonega (Bretagne)</t>
+          <t>Opégraphacées</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Enterographa brezhonega (Bretagne)</t>
         </is>
       </c>
     </row>
@@ -526,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+          <t>Liste_d'espèces_endémiques_de_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -552,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+          <t>Liste_d'espèces_endémiques_de_France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,8 +591,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kudoidés
-Kudoa camarguensis Pampoulie, Marques, Rosecchi, Crivellia &amp; Bouchereau, 1999
+          <t>Kudoidés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Kudoa camarguensis Pampoulie, Marques, Rosecchi, Crivellia &amp; Bouchereau, 1999
 Découvert dans le delta du Rhône.</t>
         </is>
       </c>
@@ -584,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+          <t>Liste_d'espèces_endémiques_de_France</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +628,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Secernentea
-Hoplolaimidés
-Helicotylenchus minutus (Guadeloupe)
+          <t>Secernentea</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hoplolaimidés</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Helicotylenchus minutus (Guadeloupe)
 Rotylenchus provincialis</t>
         </is>
       </c>
@@ -617,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+          <t>Liste_d'espèces_endémiques_de_France</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,51 +669,70 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Hirudinées (sangsues)
-Erpobdellidae
-Trocheta falkneri, décrite en 1996
-Oligochètes
-Lumbricidae
-Allobophora burgondiae
+          <t>Hirudinées (sangsues)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Erpobdellidae</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Trocheta falkneri, décrite en 1996</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Annélides</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Oligochètes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Lumbricidae</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Allobophora burgondiae
 Aporrectodea catalaunensis
 Dendrobaena provincialis
 Octodrilus juvyi (Massif de la Grande-Chartreuse) (décrit en 2005)</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Mollusques</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+          <t>Liste_d'espèces_endémiques_de_France</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -696,10 +747,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Crustacés</t>
+          <t>Mollusques</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -707,7 +760,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+          <t>Liste_d'espèces_endémiques_de_France</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,10 +775,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Arachnides</t>
+          <t>Crustacés</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -733,7 +788,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+          <t>Liste_d'espèces_endémiques_de_France</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -748,10 +803,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Myriapodes</t>
+          <t>Arachnides</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -759,7 +816,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+          <t>Liste_d'espèces_endémiques_de_France</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -774,10 +831,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Insectes</t>
+          <t>Myriapodes</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -785,7 +844,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+          <t>Liste_d'espèces_endémiques_de_France</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -800,10 +859,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Poissons</t>
+          <t>Insectes</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -811,7 +872,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+          <t>Liste_d'espèces_endémiques_de_France</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -826,33 +887,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Amphibiens</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Urodèles
-Salamandridés
-Euproctus montanus (Corse)
-Salamandra corsica (Corse)
-Anoures
-Bufonidés
-Atelopus flavescens (Guyane française)
-Atelopus franciscus (Guyane française)
-Rhinella lescurei (= Bufo lescurei) (Guyane française)
-Dendrobatidés
-Colostethus chalcopis (espèce décrite en 1994 ; Martinique)
-Discoglossidés
-Discoglosse corse (Discoglossus montalentii) (Corse)
-Hylidés
-Scinax jolyi (espèce décrite en 2001 ; Guyane française)
-Leptodactylidés
-Eleutherodactylus barlagnei (Guadeloupe)
-Eleutherodactylus pinchoni (Guadeloupe)
-Gymnophiones
-Microcaecilia unicolor (Guyane française)</t>
-        </is>
-      </c>
+          <t>Poissons</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -860,7 +900,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+          <t>Liste_d'espèces_endémiques_de_France</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -875,10 +915,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Reptiles</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>Amphibiens</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Urodèles</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Salamandridés</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Euproctus montanus (Corse)
+Salamandra corsica (Corse)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -886,7 +941,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+          <t>Liste_d'espèces_endémiques_de_France</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -901,10 +956,26 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Oiseaux</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>Amphibiens</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Anoures</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Bufonidés</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Atelopus flavescens (Guyane française)
+Atelopus franciscus (Guyane française)
+Rhinella lescurei (= Bufo lescurei) (Guyane française)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -912,7 +983,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+          <t>Liste_d'espèces_endémiques_de_France</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -927,20 +998,355 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>Amphibiens</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Anoures</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Dendrobatidés</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Colostethus chalcopis (espèce décrite en 1994 ; Martinique)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Amphibiens</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Anoures</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Discoglossidés</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Discoglosse corse (Discoglossus montalentii) (Corse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Amphibiens</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Anoures</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Hylidés</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Scinax jolyi (espèce décrite en 2001 ; Guyane française)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Amphibiens</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Anoures</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Leptodactylidés</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Eleutherodactylus barlagnei (Guadeloupe)
+Eleutherodactylus pinchoni (Guadeloupe)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Amphibiens</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Gymnophiones</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Microcaecilia unicolor (Guyane française)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Mammifères</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Chiroptères
-Vespertilionidae
-Sérotine de la Guadeloupe (Eptesicus guadeloupensis) (Guadeloupe)
-Rongeurs
-Muridés
-Megalomys desmarestii (Martinique ; éteint en 1902)
-Lagomorphes
-Prolagidés
-Prolagus corsicanus (Corse ; éteint vers 1800)</t>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Chiroptères</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Vespertilionidae</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Sérotine de la Guadeloupe (Eptesicus guadeloupensis) (Guadeloupe)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Rongeurs</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Muridés</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Megalomys desmarestii (Martinique ; éteint en 1902)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_endémiques_de_France</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_end%C3%A9miques_de_France</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Lagomorphes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Prolagidés</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Prolagus corsicanus (Corse ; éteint vers 1800)</t>
         </is>
       </c>
     </row>
